--- a/assets/televerssements/Tableau_de_suivi_de_veille_technologique_BTS_SIO_NAKHIL.xlsx
+++ b/assets/televerssements/Tableau_de_suivi_de_veille_technologique_BTS_SIO_NAKHIL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\veille_technologique\assets\televerssements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A7DF48-BACC-4E3C-973E-F3FF31ECAC4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB64FCD-D012-48E9-9FC9-05B6719B933E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,6 +296,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -303,15 +312,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -597,7 +597,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,17 +609,17 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -640,18 +640,18 @@
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1011,21 +1011,30 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="E16:I16"/>
@@ -1042,30 +1051,21 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/televerssements/Tableau_de_suivi_de_veille_technologique_BTS_SIO_NAKHIL.xlsx
+++ b/assets/televerssements/Tableau_de_suivi_de_veille_technologique_BTS_SIO_NAKHIL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\veille_technologique\assets\televerssements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB64FCD-D012-48E9-9FC9-05B6719B933E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93549E8C-CC30-4832-B126-3A7C9813705C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,6 +296,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -303,15 +312,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -597,7 +597,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D9"/>
+      <selection activeCell="B20" sqref="B20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,17 +609,17 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -640,18 +640,18 @@
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1011,30 +1011,21 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="E16:I16"/>
@@ -1051,21 +1042,30 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/televerssements/Tableau_de_suivi_de_veille_technologique_BTS_SIO_NAKHIL.xlsx
+++ b/assets/televerssements/Tableau_de_suivi_de_veille_technologique_BTS_SIO_NAKHIL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\veille_technologique\assets\televerssements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93549E8C-CC30-4832-B126-3A7C9813705C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86F91BC-7184-4988-A62B-700F12834E9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,6 +296,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -303,15 +312,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -597,7 +597,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:D20"/>
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,17 +609,17 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -640,18 +640,18 @@
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1011,21 +1011,30 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="E16:I16"/>
@@ -1042,30 +1051,21 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/televerssements/Tableau_de_suivi_de_veille_technologique_BTS_SIO_NAKHIL.xlsx
+++ b/assets/televerssements/Tableau_de_suivi_de_veille_technologique_BTS_SIO_NAKHIL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\veille_technologique\assets\televerssements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86F91BC-7184-4988-A62B-700F12834E9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E9C532-527F-45F0-9A7E-71018EDDC657}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,6 +296,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -303,15 +312,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -597,7 +597,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D9"/>
+      <selection activeCell="E22" sqref="E22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,17 +609,17 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -640,18 +640,18 @@
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1011,30 +1011,21 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="E16:I16"/>
@@ -1051,21 +1042,30 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/televerssements/Tableau_de_suivi_de_veille_technologique_BTS_SIO_NAKHIL.xlsx
+++ b/assets/televerssements/Tableau_de_suivi_de_veille_technologique_BTS_SIO_NAKHIL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\veille_technologique\assets\televerssements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E9C532-527F-45F0-9A7E-71018EDDC657}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F3AA54-5A44-416E-B60F-EEE560C030E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,6 +296,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -303,15 +312,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -597,7 +597,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:I22"/>
+      <selection activeCell="E20" sqref="E20:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,17 +609,17 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -640,18 +640,18 @@
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1011,21 +1011,30 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="E16:I16"/>
@@ -1042,30 +1051,21 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/televerssements/Tableau_de_suivi_de_veille_technologique_BTS_SIO_NAKHIL.xlsx
+++ b/assets/televerssements/Tableau_de_suivi_de_veille_technologique_BTS_SIO_NAKHIL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\veille_technologique\assets\televerssements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F3AA54-5A44-416E-B60F-EEE560C030E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3AF071-8D13-49EF-B047-69D82A93484C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>VEILLE TECHNOLOGIQUE - BTS SIO</t>
   </si>
@@ -48,9 +48,6 @@
     <t xml:space="preserve"> 06/10/2020</t>
   </si>
   <si>
-    <t>Le phishing, ou hameçonnage, est une technique de fraude en ligne qui existe depuis plusieurs décennies mais continue de faire des ravages, y compris dans les entreprises. Comment s'en prémunir ? Nos conseils.</t>
-  </si>
-  <si>
     <t>La stratégie cloud des moyennes et grandes entreprises chamboulée par le Covid-19</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Les bénéfices qu'impliquent les robots sont systématiquements vus de manière purement comptable. Toutefois, la robotisation implique des problématiques éthique.</t>
   </si>
   <si>
-    <t>NOM Prénom / Classe : NAKHIL Amine SLAM 2</t>
-  </si>
-  <si>
     <t>THEME CHOISI: Robotisation</t>
   </si>
   <si>
@@ -121,6 +115,18 @@
   </si>
   <si>
     <t>Les robots ne maitrisent pas spontannément des taches très évidentes pour l'Homme mais sont très efficaces pour les tâches difficiles pour l'Homme,  cela constitue une opportunité d'exploiter les robots sans entrer dans une logique malthusienne</t>
+  </si>
+  <si>
+    <t>Chaque robot peut détruire "six à sept emplois"</t>
+  </si>
+  <si>
+    <t>SimilarWeb</t>
+  </si>
+  <si>
+    <t>Une étude, réalisé par des chercheurs initialement sceptiques confirment bel et bien que les robots détruisent des emplois. Une démonstration rare.</t>
+  </si>
+  <si>
+    <t>NOM Prénom / Classe : NAKHIL / Amine SLAM 2</t>
   </si>
 </sst>
 </file>
@@ -296,6 +302,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -303,15 +318,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -597,7 +603,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:I20"/>
+      <selection activeCell="E22" sqref="E22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,61 +615,64 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -675,12 +684,12 @@
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -692,12 +701,12 @@
         <v>44095</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -709,12 +718,12 @@
         <v>44091</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -723,15 +732,15 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>44091</v>
+        <v>42825</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="6" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -743,12 +752,12 @@
         <v>44084</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -760,12 +769,12 @@
         <v>44096</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -777,12 +786,12 @@
         <v>44071</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -794,12 +803,12 @@
         <v>44109</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -808,13 +817,15 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>44119</v>
-      </c>
-      <c r="B18" s="6"/>
+        <v>42825</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -826,12 +837,12 @@
         <v>44082</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -843,12 +854,12 @@
         <v>44214</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
       <c r="E20" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -1011,30 +1022,21 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="E16:I16"/>
@@ -1051,21 +1053,30 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/televerssements/Tableau_de_suivi_de_veille_technologique_BTS_SIO_NAKHIL.xlsx
+++ b/assets/televerssements/Tableau_de_suivi_de_veille_technologique_BTS_SIO_NAKHIL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\veille_technologique\assets\televerssements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3AF071-8D13-49EF-B047-69D82A93484C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2303C1B-E754-4583-BE90-EB6227FE1348}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,12 +84,6 @@
     <t>Les machines sont complémentaires du travail humain. Le fort taux de chomage est imputable au manque de compétitivité et de demande, la robotisation améliores ces deux variables. L'automatisation va de pair avec le plein-emploi et la prospérité.</t>
   </si>
   <si>
-    <t>La baisse des impôts de production visera « particulièrement » les industries</t>
-  </si>
-  <si>
-    <t>Miser sur la compétitivité peut aider aux relocalisations et donc sur l'emploi. Notre retard sur la robotisation a fais fuir les industriels qui peuvent revenir par le meme biais.</t>
-  </si>
-  <si>
     <t>Tesla : les leçons d'une robotisation à outrance</t>
   </si>
   <si>
@@ -127,6 +121,12 @@
   </si>
   <si>
     <t>NOM Prénom / Classe : NAKHIL / Amine SLAM 2</t>
+  </si>
+  <si>
+    <t>Les 4 avantages de la robotisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Il y a beaucoup d'alarmisme sur les robots, surtout la place de l'intelligence artificielle par rapport à l'humain, et des conséquences sur l'emploi. Cet article énumère les avantages que peut apporter la robotisation</t>
   </si>
 </sst>
 </file>
@@ -302,6 +302,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -309,15 +318,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -603,7 +603,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:I22"/>
+      <selection activeCell="E15" sqref="E15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,21 +615,21 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -642,37 +642,37 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -684,12 +684,12 @@
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -701,12 +701,12 @@
         <v>44095</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -718,12 +718,12 @@
         <v>44091</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -735,12 +735,12 @@
         <v>42825</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -752,12 +752,12 @@
         <v>44084</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="6" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -820,7 +820,7 @@
         <v>42825</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
@@ -1022,21 +1022,30 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="E16:I16"/>
@@ -1053,30 +1062,21 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/televerssements/Tableau_de_suivi_de_veille_technologique_BTS_SIO_NAKHIL.xlsx
+++ b/assets/televerssements/Tableau_de_suivi_de_veille_technologique_BTS_SIO_NAKHIL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\veille_technologique\assets\televerssements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2303C1B-E754-4583-BE90-EB6227FE1348}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4C0D12-6D8B-4457-8C99-BF16A20A73F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>VEILLE TECHNOLOGIQUE - BTS SIO</t>
   </si>
@@ -66,9 +66,6 @@
     <t>L'automatisation des taches détruit certes des emplois, mais cette automatisation a des externalités positives qui impliquent une hausse de main d'œuvre. Le bilan est alors positif.</t>
   </si>
   <si>
-    <t>La France, par immobilisme a négligé la filière robotique. Elle accuse un retard dans ce domaine qui affecte énormément sa compétitivité. Les robots dans certains domaines sont plus productifs que les humains.</t>
-  </si>
-  <si>
     <t>« Robots tueurs » : les mille questions posées par les armes autonomes</t>
   </si>
   <si>
@@ -127,6 +124,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Il y a beaucoup d'alarmisme sur les robots, surtout la place de l'intelligence artificielle par rapport à l'humain, et des conséquences sur l'emploi. Cet article énumère les avantages que peut apporter la robotisation</t>
+  </si>
+  <si>
+    <t>Cet article résume l'histoire de l'intelligence artificille, notement à travers son inventeur, il permet de découvrir ce qu'est l'intelligence artificielle, la méthode du temps partagé. Il a uniquement inventé cela sous forme logicielle. Cela illustre l'énorme étendue des perspectives de l'informatique. Et cela permet d'en conjecturer d'autres, comme l'intrication ou l'informatique quantique ou bien le stockage de données dans l'ADN</t>
+  </si>
+  <si>
+    <t>Jhon Mcarhy</t>
   </si>
 </sst>
 </file>
@@ -302,6 +305,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -309,15 +321,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -603,7 +606,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:I15"/>
+      <selection activeCell="B18" sqref="B18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,26 +618,26 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -642,37 +645,37 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -684,12 +687,12 @@
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -701,12 +704,12 @@
         <v>44095</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -718,12 +721,12 @@
         <v>44091</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -735,12 +738,12 @@
         <v>42825</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -752,12 +755,12 @@
         <v>44084</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -786,12 +789,12 @@
         <v>44071</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -803,12 +806,12 @@
         <v>44109</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -820,12 +823,12 @@
         <v>42825</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="6" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1022,30 +1025,21 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="E16:I16"/>
@@ -1062,21 +1056,30 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
